--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,10 +91,10 @@
     <t>Fzd4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.01540185225751</v>
+        <v>0.270269</v>
       </c>
       <c r="H2">
-        <v>1.01540185225751</v>
+        <v>0.8108069999999999</v>
       </c>
       <c r="I2">
-        <v>0.4300604768932971</v>
+        <v>0.07675782952922429</v>
       </c>
       <c r="J2">
-        <v>0.4300604768932971</v>
+        <v>0.07675782952922428</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.1536323942571</v>
+        <v>27.25040933333333</v>
       </c>
       <c r="N2">
-        <v>25.1536323942571</v>
+        <v>81.751228</v>
       </c>
       <c r="O2">
-        <v>0.4615335486812511</v>
+        <v>0.455635031912059</v>
       </c>
       <c r="P2">
-        <v>0.4615335486812511</v>
+        <v>0.4556350319120589</v>
       </c>
       <c r="Q2">
-        <v>25.54104492413316</v>
+        <v>7.364940880110666</v>
       </c>
       <c r="R2">
-        <v>25.54104492413316</v>
+        <v>66.28446792099599</v>
       </c>
       <c r="S2">
-        <v>0.1984873380481146</v>
+        <v>0.03497355610704849</v>
       </c>
       <c r="T2">
-        <v>0.1984873380481146</v>
+        <v>0.03497355610704848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.01540185225751</v>
+        <v>0.270269</v>
       </c>
       <c r="H3">
-        <v>1.01540185225751</v>
+        <v>0.8108069999999999</v>
       </c>
       <c r="I3">
-        <v>0.4300604768932971</v>
+        <v>0.07675782952922429</v>
       </c>
       <c r="J3">
-        <v>0.4300604768932971</v>
+        <v>0.07675782952922428</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.9676925388148</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N3">
-        <v>13.9676925388148</v>
+        <v>42.094435</v>
       </c>
       <c r="O3">
-        <v>0.2562873863816051</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="P3">
-        <v>0.2562873863816051</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="Q3">
-        <v>14.18282087567595</v>
+        <v>3.792273617671666</v>
       </c>
       <c r="R3">
-        <v>14.18282087567595</v>
+        <v>34.130462559045</v>
       </c>
       <c r="S3">
-        <v>0.1102190756090098</v>
+        <v>0.0180081953541665</v>
       </c>
       <c r="T3">
-        <v>0.1102190756090098</v>
+        <v>0.01800819535416649</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.01540185225751</v>
+        <v>0.270269</v>
       </c>
       <c r="H4">
-        <v>1.01540185225751</v>
+        <v>0.8108069999999999</v>
       </c>
       <c r="I4">
-        <v>0.4300604768932971</v>
+        <v>0.07675782952922429</v>
       </c>
       <c r="J4">
-        <v>0.4300604768932971</v>
+        <v>0.07675782952922428</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.291143333577943</v>
+        <v>0.3744183333333334</v>
       </c>
       <c r="N4">
-        <v>0.291143333577943</v>
+        <v>1.123255</v>
       </c>
       <c r="O4">
-        <v>0.005342068048660686</v>
+        <v>0.006260387033823881</v>
       </c>
       <c r="P4">
-        <v>0.005342068048660686</v>
+        <v>0.00626038703382388</v>
       </c>
       <c r="Q4">
-        <v>0.2956274801874694</v>
+        <v>0.1011936685316667</v>
       </c>
       <c r="R4">
-        <v>0.2956274801874694</v>
+        <v>0.910743016785</v>
       </c>
       <c r="S4">
-        <v>0.00229741233260346</v>
+        <v>0.0004805337207292196</v>
       </c>
       <c r="T4">
-        <v>0.00229741233260346</v>
+        <v>0.0004805337207292194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.01540185225751</v>
+        <v>0.270269</v>
       </c>
       <c r="H5">
-        <v>1.01540185225751</v>
+        <v>0.8108069999999999</v>
       </c>
       <c r="I5">
-        <v>0.4300604768932971</v>
+        <v>0.07675782952922429</v>
       </c>
       <c r="J5">
-        <v>0.4300604768932971</v>
+        <v>0.07675782952922428</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>15.0876487153747</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N5">
-        <v>15.0876487153747</v>
+        <v>0.426419</v>
       </c>
       <c r="O5">
-        <v>0.2768369968884832</v>
+        <v>0.002376617934997971</v>
       </c>
       <c r="P5">
-        <v>0.2768369968884832</v>
+        <v>0.00237661793499797</v>
       </c>
       <c r="Q5">
-        <v>15.32002645180211</v>
+        <v>0.03841594557033333</v>
       </c>
       <c r="R5">
-        <v>15.32002645180211</v>
+        <v>0.345743510133</v>
       </c>
       <c r="S5">
-        <v>0.1190566509035693</v>
+        <v>0.0001824240343106713</v>
       </c>
       <c r="T5">
-        <v>0.1190566509035693</v>
+        <v>0.0001824240343106712</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.34566573431228</v>
+        <v>0.270269</v>
       </c>
       <c r="H6">
-        <v>1.34566573431228</v>
+        <v>0.8108069999999999</v>
       </c>
       <c r="I6">
-        <v>0.5699395231067029</v>
+        <v>0.07675782952922429</v>
       </c>
       <c r="J6">
-        <v>0.5699395231067029</v>
+        <v>0.07675782952922428</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.1536323942571</v>
+        <v>18.009092</v>
       </c>
       <c r="N6">
-        <v>25.1536323942571</v>
+        <v>54.027276</v>
       </c>
       <c r="O6">
-        <v>0.4615335486812511</v>
+        <v>0.3011174293844444</v>
       </c>
       <c r="P6">
-        <v>0.4615335486812511</v>
+        <v>0.3011174293844444</v>
       </c>
       <c r="Q6">
-        <v>33.84838120643914</v>
+        <v>4.867299285748</v>
       </c>
       <c r="R6">
-        <v>33.84838120643914</v>
+        <v>43.805693571732</v>
       </c>
       <c r="S6">
-        <v>0.2630462106331365</v>
+        <v>0.02311312031296942</v>
       </c>
       <c r="T6">
-        <v>0.2630462106331365</v>
+        <v>0.02311312031296941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.34566573431228</v>
+        <v>1.02442</v>
       </c>
       <c r="H7">
-        <v>1.34566573431228</v>
+        <v>3.07326</v>
       </c>
       <c r="I7">
-        <v>0.5699395231067029</v>
+        <v>0.2909407136087673</v>
       </c>
       <c r="J7">
-        <v>0.5699395231067029</v>
+        <v>0.2909407136087673</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.9676925388148</v>
+        <v>27.25040933333333</v>
       </c>
       <c r="N7">
-        <v>13.9676925388148</v>
+        <v>81.751228</v>
       </c>
       <c r="O7">
-        <v>0.2562873863816051</v>
+        <v>0.455635031912059</v>
       </c>
       <c r="P7">
-        <v>0.2562873863816051</v>
+        <v>0.4556350319120589</v>
       </c>
       <c r="Q7">
-        <v>18.79584523689237</v>
+        <v>27.91586432925333</v>
       </c>
       <c r="R7">
-        <v>18.79584523689237</v>
+        <v>251.24277896328</v>
       </c>
       <c r="S7">
-        <v>0.1460683107725953</v>
+        <v>0.1325627813296479</v>
       </c>
       <c r="T7">
-        <v>0.1460683107725953</v>
+        <v>0.1325627813296479</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.34566573431228</v>
+        <v>1.02442</v>
       </c>
       <c r="H8">
-        <v>1.34566573431228</v>
+        <v>3.07326</v>
       </c>
       <c r="I8">
-        <v>0.5699395231067029</v>
+        <v>0.2909407136087673</v>
       </c>
       <c r="J8">
-        <v>0.5699395231067029</v>
+        <v>0.2909407136087673</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.291143333577943</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N8">
-        <v>0.291143333577943</v>
+        <v>42.094435</v>
       </c>
       <c r="O8">
-        <v>0.005342068048660686</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="P8">
-        <v>0.005342068048660686</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="Q8">
-        <v>0.3917816077692877</v>
+        <v>14.37412703423333</v>
       </c>
       <c r="R8">
-        <v>0.3917816077692877</v>
+        <v>129.3671433081</v>
       </c>
       <c r="S8">
-        <v>0.003044655716057226</v>
+        <v>0.06825775610490008</v>
       </c>
       <c r="T8">
-        <v>0.003044655716057226</v>
+        <v>0.06825775610490006</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.02442</v>
+      </c>
+      <c r="H9">
+        <v>3.07326</v>
+      </c>
+      <c r="I9">
+        <v>0.2909407136087673</v>
+      </c>
+      <c r="J9">
+        <v>0.2909407136087673</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3744183333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.123255</v>
+      </c>
+      <c r="O9">
+        <v>0.006260387033823881</v>
+      </c>
+      <c r="P9">
+        <v>0.00626038703382388</v>
+      </c>
+      <c r="Q9">
+        <v>0.3835616290333333</v>
+      </c>
+      <c r="R9">
+        <v>3.4520546613</v>
+      </c>
+      <c r="S9">
+        <v>0.001821401471087794</v>
+      </c>
+      <c r="T9">
+        <v>0.001821401471087794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.02442</v>
+      </c>
+      <c r="H10">
+        <v>3.07326</v>
+      </c>
+      <c r="I10">
+        <v>0.2909407136087673</v>
+      </c>
+      <c r="J10">
+        <v>0.2909407136087673</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.426419</v>
+      </c>
+      <c r="O10">
+        <v>0.002376617934997971</v>
+      </c>
+      <c r="P10">
+        <v>0.00237661793499797</v>
+      </c>
+      <c r="Q10">
+        <v>0.1456107173266666</v>
+      </c>
+      <c r="R10">
+        <v>1.31049645594</v>
+      </c>
+      <c r="S10">
+        <v>0.0006914549179837046</v>
+      </c>
+      <c r="T10">
+        <v>0.0006914549179837044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.02442</v>
+      </c>
+      <c r="H11">
+        <v>3.07326</v>
+      </c>
+      <c r="I11">
+        <v>0.2909407136087673</v>
+      </c>
+      <c r="J11">
+        <v>0.2909407136087673</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>18.009092</v>
+      </c>
+      <c r="N11">
+        <v>54.027276</v>
+      </c>
+      <c r="O11">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="P11">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="Q11">
+        <v>18.44887402664</v>
+      </c>
+      <c r="R11">
+        <v>166.03986623976</v>
+      </c>
+      <c r="S11">
+        <v>0.08760731978514787</v>
+      </c>
+      <c r="T11">
+        <v>0.08760731978514787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.226372</v>
+      </c>
+      <c r="H12">
+        <v>6.679116</v>
+      </c>
+      <c r="I12">
+        <v>0.6323014568620083</v>
+      </c>
+      <c r="J12">
+        <v>0.6323014568620083</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>27.25040933333333</v>
+      </c>
+      <c r="N12">
+        <v>81.751228</v>
+      </c>
+      <c r="O12">
+        <v>0.455635031912059</v>
+      </c>
+      <c r="P12">
+        <v>0.4556350319120589</v>
+      </c>
+      <c r="Q12">
+        <v>60.669548328272</v>
+      </c>
+      <c r="R12">
+        <v>546.0259349544481</v>
+      </c>
+      <c r="S12">
+        <v>0.2880986944753625</v>
+      </c>
+      <c r="T12">
+        <v>0.2880986944753625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.34566573431228</v>
-      </c>
-      <c r="H9">
-        <v>1.34566573431228</v>
-      </c>
-      <c r="I9">
-        <v>0.5699395231067029</v>
-      </c>
-      <c r="J9">
-        <v>0.5699395231067029</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>15.0876487153747</v>
-      </c>
-      <c r="N9">
-        <v>15.0876487153747</v>
-      </c>
-      <c r="O9">
-        <v>0.2768369968884832</v>
-      </c>
-      <c r="P9">
-        <v>0.2768369968884832</v>
-      </c>
-      <c r="Q9">
-        <v>20.30293188762042</v>
-      </c>
-      <c r="R9">
-        <v>20.30293188762042</v>
-      </c>
-      <c r="S9">
-        <v>0.1577803459849139</v>
-      </c>
-      <c r="T9">
-        <v>0.1577803459849139</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.226372</v>
+      </c>
+      <c r="H13">
+        <v>6.679116</v>
+      </c>
+      <c r="I13">
+        <v>0.6323014568620083</v>
+      </c>
+      <c r="J13">
+        <v>0.6323014568620083</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.03147833333333</v>
+      </c>
+      <c r="N13">
+        <v>42.094435</v>
+      </c>
+      <c r="O13">
+        <v>0.2346105337346748</v>
+      </c>
+      <c r="P13">
+        <v>0.2346105337346748</v>
+      </c>
+      <c r="Q13">
+        <v>31.23929047994</v>
+      </c>
+      <c r="R13">
+        <v>281.1536143194601</v>
+      </c>
+      <c r="S13">
+        <v>0.1483445822756083</v>
+      </c>
+      <c r="T13">
+        <v>0.1483445822756082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.226372</v>
+      </c>
+      <c r="H14">
+        <v>6.679116</v>
+      </c>
+      <c r="I14">
+        <v>0.6323014568620083</v>
+      </c>
+      <c r="J14">
+        <v>0.6323014568620083</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3744183333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.123255</v>
+      </c>
+      <c r="O14">
+        <v>0.006260387033823881</v>
+      </c>
+      <c r="P14">
+        <v>0.00626038703382388</v>
+      </c>
+      <c r="Q14">
+        <v>0.83359449362</v>
+      </c>
+      <c r="R14">
+        <v>7.502350442580001</v>
+      </c>
+      <c r="S14">
+        <v>0.003958451842006867</v>
+      </c>
+      <c r="T14">
+        <v>0.003958451842006867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.226372</v>
+      </c>
+      <c r="H15">
+        <v>6.679116</v>
+      </c>
+      <c r="I15">
+        <v>0.6323014568620083</v>
+      </c>
+      <c r="J15">
+        <v>0.6323014568620083</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.426419</v>
+      </c>
+      <c r="O15">
+        <v>0.002376617934997971</v>
+      </c>
+      <c r="P15">
+        <v>0.00237661793499797</v>
+      </c>
+      <c r="Q15">
+        <v>0.316455773956</v>
+      </c>
+      <c r="R15">
+        <v>2.848101965604</v>
+      </c>
+      <c r="S15">
+        <v>0.001502738982703595</v>
+      </c>
+      <c r="T15">
+        <v>0.001502738982703594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.226372</v>
+      </c>
+      <c r="H16">
+        <v>6.679116</v>
+      </c>
+      <c r="I16">
+        <v>0.6323014568620083</v>
+      </c>
+      <c r="J16">
+        <v>0.6323014568620083</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.009092</v>
+      </c>
+      <c r="N16">
+        <v>54.027276</v>
+      </c>
+      <c r="O16">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="P16">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="Q16">
+        <v>40.094938174224</v>
+      </c>
+      <c r="R16">
+        <v>360.8544435680161</v>
+      </c>
+      <c r="S16">
+        <v>0.1903969892863271</v>
+      </c>
+      <c r="T16">
+        <v>0.1903969892863271</v>
       </c>
     </row>
   </sheetData>
